--- a/Data/sm1129200@gmail.com-over-consumption.xlsx
+++ b/Data/sm1129200@gmail.com-over-consumption.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,3559 +438,3990 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Daylight Consumption in kWh</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Night Consumption in kWh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Daylight Price in UAH</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Night Price in UAH</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Consumption</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total Price</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2024</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>45620.90422453704</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>6.376849122867142</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.243969461900917</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>16.83488168436926</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.602039689709211</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>10.62081858476806</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>22.43692137407847</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2024</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>45621.90422453704</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>8.319487749701718</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.624902324294853</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>21.96344765921254</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>6.104871068069206</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>12.94439007399657</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>28.06831872728174</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2024</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>45622.90422453704</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>7.888136043137131</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.664686023245334</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>20.82467915388203</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7.477385550683842</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>13.55282206638246</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28.30206470456587</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2024</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>45623.90422453704</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>9.293988634430665</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.006358432930578</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24.53612999489696</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>2.648393131468363</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>11.30034706736124</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>27.18452312636532</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2024</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>45624.90422453704</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>8.333757835987461</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.752510282942536</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>22.0011206870069</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2.313313573484148</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>10.08626811893</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>24.31443426049104</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2024</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>45625.90422453704</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>5.719186845198367</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.18347159968633</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>15.09865327132369</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>8.162182511585955</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>11.9026584448847</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>23.26083578290964</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2024</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>45626.90422453704</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2.704200951319996</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.55371640287834</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.139090511484789</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.690905651799409</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>6.257917354198336</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>11.8299961632842</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2024</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>45627.90422453704</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>2.362020878455924</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.549140367176014</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>6.23573511912364</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.364865284672338</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>4.911161245631938</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>9.600600403795978</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2024</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>45628.90422453704</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>3.513614908491137</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.526660544729753</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>9.275943358416603</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5.975191919043274</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>8.04027545322089</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>15.25113527745988</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>2024</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>45629.90422453704</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2.744868480290717</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>7.445553124801096</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>7.246452787967493</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>9.828130124737447</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>10.19042160509181</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>17.07458291270494</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>2024</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>45630.90422453704</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.377521744831177</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>6.673298342784925</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.636657406354306</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>8.808753812476102</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>8.050820087616101</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>12.44541121883041</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>2024</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>45631.90422453704</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>5.046377901261945</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.560803968758714</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>13.32243765933153</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4.700261238761502</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>8.607181870020659</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>18.02269889809304</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>2024</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>45632.90422453704</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>5.936741941324522</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.124060014621256</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>15.67299872509674</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.803759219300058</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>8.060801955945777</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>18.47675794439679</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>2024</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="D15" s="2" t="n">
         <v>45633.90422453704</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>9.335770746473216</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.269985538976385</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>24.64643477068929</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>2.996380911448829</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>11.6057562854496</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>27.64281568213812</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>12</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>2024</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>45634.90422453704</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>6.368183088822743</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7.533979563313778</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>16.81200335449204</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>9.944853023574188</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>13.90216265213652</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>26.75685637806623</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>2024</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="D17" s="2" t="n">
         <v>45635.90422453704</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>9.921179172279764</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.215531001488263</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>26.19191301481858</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2.924500921964508</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>12.13671017376803</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>29.11641393678309</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>12</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>2024</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>45636.90422453704</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.696196773209531</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>5.168145756835766</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4.477959481273162</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>6.821952399023212</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>6.864342530045297</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>11.29991188029637</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>12</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>2024</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="D19" s="2" t="n">
         <v>45637.90422453704</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>5.160135451919528</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2.853957516579317</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>13.62275759306755</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3.767223921884699</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>8.014092968498845</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>17.38998151495225</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>12</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2024</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>45638.90422453704</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4.362928044792909</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.552270639565098</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>11.51813003825328</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>2.048997244225929</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>5.915198684358007</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>13.56712728247921</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>2024</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="D21" s="2" t="n">
         <v>45639.90422453704</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>2.086587772835539</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>4.9381239512814</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>5.508591720285823</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>6.518323615691449</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>7.024711724116939</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>12.02691533597727</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>12</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>2024</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="D22" s="2" t="n">
         <v>45640.90422453704</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>3.546774446914907</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>4.64834739641903</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>9.363484539855357</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>6.13581856327312</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>8.195121843333938</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>15.49930310312848</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>2024</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="D23" s="2" t="n">
         <v>45641.90422453704</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>2.850405422526558</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>3.533263377785237</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>7.525070315470114</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>4.663907658676512</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>6.383668800311795</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>12.18897797414663</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>2024</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="D24" s="2" t="n">
         <v>45642.90422453704</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>7.417504044953521</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.672485433281568</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>19.5822106786773</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>2.207680771931669</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>9.089989478235088</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>21.78989145060897</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>2024</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="D25" s="2" t="n">
         <v>45643.90422453704</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>5.981454735716348</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3.005311734020315</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>15.79104050229116</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3.967011488906815</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>8.986766469736661</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>19.75805199119797</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>2024</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="D26" s="2" t="n">
         <v>45644.90422453704</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>8.191256890371065</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.145545733982075</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>21.62491819057961</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>8.11212036885634</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>14.33680262435314</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>29.73703855943595</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>12</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>2024</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="D27" s="2" t="n">
         <v>45645.90422453704</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>4.246487041953434</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4.535298639393998</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>11.21072579075707</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>5.986594204000078</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>8.781785681347433</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>17.19731999475714</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>12</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>2024</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="D28" s="2" t="n">
         <v>45646.90422453704</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>8.23303212521221</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>3.79819878080708</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>21.73520481056024</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>5.013622390665345</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>12.03123090601929</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>26.74882720122558</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>2024</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="D29" s="2" t="n">
         <v>45647.90422453704</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>4.243158573060901</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>7.718304239593436</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>11.20193863288078</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>10.18816159626334</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>11.96146281265434</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>21.39010022914412</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>12</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>2024</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="D30" s="2" t="n">
         <v>45648.90422453704</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.18552313501875</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>2.889151047081822</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>3.129781076449499</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>3.813679382148005</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>4.074674182100572</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>6.943460458597505</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>12</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>2024</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="D31" s="2" t="n">
         <v>45649.90422453704</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>3.557668369839777</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>3.185833556725417</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>9.39224449637701</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>4.205300294877551</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>6.743501926565194</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>13.59754479125456</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>12</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>2024</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="D32" s="2" t="n">
         <v>45650.90422453704</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>9.485075564393947</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>5.187717770883998</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>25.04059949000002</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>6.847787457566877</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>14.67279333527794</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>31.8883869475669</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>12</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>2024</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="D33" s="2" t="n">
         <v>45651.90422453704</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>8.984100112277796</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>5.44249475610264</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>23.71802429641338</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>7.184093078055485</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>14.42659486838044</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>30.90211737446887</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>12</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>2024</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="D34" s="2" t="n">
         <v>45652.90422453704</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>9.711195795845699</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>5.590793594581799</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>25.63755690103265</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>7.379847544847975</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>15.3019893904275</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>33.01740444588062</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>12</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>2024</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="D35" s="2" t="n">
         <v>45653.90422453704</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>2.431355069457664</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>2.15612889544761</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>6.418777383368232</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>2.846090141990846</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>4.587483964905274</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>9.264867525359078</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>12</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>2024</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="D36" s="2" t="n">
         <v>45654.90422453704</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>4.901221089430076</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>3.955501772946357</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>12.9392236760954</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>5.221262340289192</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>8.856722862376433</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>18.1604860163846</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>12</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>2024</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="D37" s="2" t="n">
         <v>45655.90422453704</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>8.656518585952307</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>5.312167293250425</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>22.85320906691409</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>7.012060827090562</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>13.96868587920273</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>29.86526989400465</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>12</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>2024</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="D38" s="2" t="n">
         <v>45656.90422453704</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>2.469119532211619</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>2.78634894257541</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.518475565038674</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>3.677980604199541</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>5.255468474787029</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>10.19645616923822</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>12</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>2024</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="D39" s="2" t="n">
         <v>45657.90422453704</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>4.211281626076298</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>6.945980893685535</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.11778349284143</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>9.168694779664907</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>11.15726251976183</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>20.28647827250634</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>1</v>
       </c>
-      <c r="B40" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>45658.90422453704</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>9.167139896508173</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>6.546777812003963</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>24.20124932678158</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>8.641746711845231</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>15.71391770851214</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>32.84299603862681</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>1</v>
       </c>
-      <c r="B41" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>45659.90422453704</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>4.915820296589297</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>2.501028045841767</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>12.97776558299575</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>3.301357020511132</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>7.416848342431064</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>16.27912260350688</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="B42" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>45660.90422453704</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>7.466241963020243</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>1.34412402512313</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>19.71087878237344</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1.774243713162531</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>8.810365988143372</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>21.48512249553597</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>1</v>
       </c>
-      <c r="B43" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>45661.90422453704</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>1.323552567505976</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>6.458331766972334</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>3.494178778215776</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>8.524997932403481</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>7.78188433447831</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>12.01917671061926</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>1</v>
       </c>
-      <c r="B44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>45662.90422453704</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>5.33549103876309</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>4.301103443143325</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>14.08569634233456</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>5.677456544949189</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>9.636594481906414</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>19.76315288728374</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>1</v>
       </c>
-      <c r="B45" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>45663.90422453704</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>9.88671800007568</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>6.131265967646481</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>26.1009355201998</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>8.093271077293355</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>16.01798396772216</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>34.19420659749315</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>1</v>
       </c>
-      <c r="B46" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>45664.90422453704</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>9.890507960799376</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1.598192531531597</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>26.11094101651035</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>2.109614141621709</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>11.48870049233097</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>28.22055515813206</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="B47" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>45665.90422453704</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>2.9198604859561</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>5.055822460508542</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>7.708431682924105</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>6.673685647871276</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>7.975682946464643</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>14.38211733079538</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>1</v>
       </c>
-      <c r="B48" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>45666.90422453704</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>3.256730899474856</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>3.57439343582181</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>8.59776957461362</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>4.71819933528479</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>6.831124335296666</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>13.31596890989841</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>1</v>
       </c>
-      <c r="B49" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>45667.90422453704</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>8.139305426624205</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>7.074241466687223</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>21.4877663262879</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>9.337998736027135</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>15.21354689331143</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>30.82576506231504</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="B50" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>45668.90422453704</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>2.929932613205112</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>3.467027502146516</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>7.735022098861495</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>4.576476302833401</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>6.396960115351627</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>12.3114984016949</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>1</v>
       </c>
-      <c r="B51" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>45669.90422453704</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>1.153861852879096</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>6.306491869465257</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>3.046195291600814</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>8.324569267694139</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>7.460353722344353</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>11.37076455929495</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="B52" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>45670.90422453704</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>7.425352725646826</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>4.669701600176424</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>19.60293119570762</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>6.16400611223288</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>12.09505432582325</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>25.7669373079405</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>1</v>
       </c>
-      <c r="B53" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>45671.90422453704</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>2.507793520733299</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>7.073940502854601</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>6.620574894735909</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>9.337601463768074</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>9.581734023587899</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>15.95817635850398</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="B54" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D54" s="2" t="n">
         <v>45672.90422453704</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>8.754849766899369</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>4.34089972283317</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>23.11280338461433</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>5.729987634139784</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>13.09574948973254</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>28.84279101875412</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="B55" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>45673.90422453704</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>2.600614589598808</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>7.535789982517539</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>6.865622516540854</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>9.947242776923151</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>10.13640457211635</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>16.812865293464</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="B56" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>45674.90422453704</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>2.660658845577552</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>4.005515193701465</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>7.024139352324737</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>5.287280055685933</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>6.666174039279016</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>12.31141940801067</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="B57" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>45675.90422453704</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>7.862310845935998</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>1.512438987111598</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>20.75650063327103</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1.99641946298731</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>9.374749833047595</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>22.75292009625834</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="B58" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>45676.90422453704</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>7.629162537900944</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>3.178128029572523</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>20.14098910005849</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>4.19512899903573</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>10.80729056747347</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>24.33611809909423</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>1</v>
       </c>
-      <c r="B59" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>45677.90422453704</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>3.832187714123955</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>6.136395411664662</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>10.11697556528724</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>8.100041943397354</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>9.968583125788616</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>18.2170175086846</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>1</v>
       </c>
-      <c r="B60" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D60" s="2" t="n">
         <v>45678.90422453704</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>4.487180176473849</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>6.298811171886404</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>11.84615566589096</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>8.314430746890054</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>10.78599134836025</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>20.16058641278102</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="B61" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D61" s="2" t="n">
         <v>45679.90422453704</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>4.653893564690813</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>2.029876133518433</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>12.28627901078375</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>2.679436496244332</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>6.683769698209247</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>14.96571550702808</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>1</v>
       </c>
-      <c r="B62" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D62" s="2" t="n">
         <v>45680.90422453704</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>9.192094855209607</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>7.282550568075822</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>24.26713041775336</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>9.612966749860085</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>16.47464542328543</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>33.88009716761345</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>1</v>
       </c>
-      <c r="B63" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>45681.90422453704</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>1.696412210080228</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>6.390069818840972</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>4.478528234611803</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>8.434892160870083</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>8.0864820289212</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>12.91342039548189</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>1</v>
       </c>
-      <c r="B64" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>45682.90422453704</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>2.678183654159788</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>3.329797221458815</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>7.070404846981842</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>4.395332332325636</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>6.007980875618603</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>11.46573717930748</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="B65" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>45683.90422453704</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>9.818513178439918</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>2.629867067711357</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>25.92087479108138</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>3.471424529378992</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>12.44838024615128</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>29.39229932046038</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>1</v>
       </c>
-      <c r="B66" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D66" s="2" t="n">
         <v>45684.90422453704</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>1.986065703108464</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>7.255926503858246</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>5.243213456206345</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>9.577822985092885</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>9.24199220696671</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>14.82103644129923</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>1</v>
       </c>
-      <c r="B67" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>45685.90422453704</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>6.581717719746221</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>6.652459189534383</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>17.37573478013002</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>8.781246130185385</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>13.2341769092806</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>26.15698091031541</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>1</v>
       </c>
-      <c r="B68" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>45686.90422453704</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>4.248627033868486</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>3.089894231567614</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>11.2163753694128</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>4.07866038566925</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>7.3385212654361</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>15.29503575508205</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="B69" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>45687.90422453704</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>8.350022984415867</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>5.701553090390295</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>22.04406067885789</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>7.52605007931519</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>14.05157607480616</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>29.57011075817308</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>1</v>
       </c>
-      <c r="B70" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D70" s="2" t="n">
         <v>45688.90422453704</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>2.754708744245758</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>7.391029977430364</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>7.272431084808802</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>9.75615957020808</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>10.14573872167612</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>17.02859065501688</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>2</v>
       </c>
-      <c r="B71" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>45689.90422453704</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>6.644562401355396</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>6.57458865733787</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>17.54164473957825</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>8.678457027685988</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>13.21915105869327</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>26.22010176726423</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>2</v>
       </c>
-      <c r="B72" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>45690.90422453704</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>4.473174892739195</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>1.234458086314144</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>11.80918171683147</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>1.62948467393467</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>5.707632979053338</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>13.43866639076614</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="B73" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D73" s="2" t="n">
         <v>45691.90422453704</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>9.049117426938892</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>2.274393055134698</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>23.88967000711868</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>3.002198832777801</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>11.32351048207359</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>26.89186883989648</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>2</v>
       </c>
-      <c r="B74" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D74" s="2" t="n">
         <v>45692.90422453704</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>6.651422220000862</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>7.615976210710484</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>17.55975466080228</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>10.05308859813784</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>14.26739843071135</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>27.61284325894012</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>2</v>
       </c>
-      <c r="B75" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>45693.90422453704</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>1.152284341263014</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>1.769379537753832</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>3.042030660934357</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>2.335580989835058</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>2.921663879016846</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>5.377611650769415</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="B76" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>45694.90422453704</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>9.061867565159924</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>3.832912451246221</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>23.9233303720222</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>5.059444435645012</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>12.89478001640614</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>28.98277480766721</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>2</v>
       </c>
-      <c r="B77" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>45695.90422453704</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>3.901368530237697</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>3.287665695293977</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>10.29961291982752</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>4.33971871778805</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>7.189034225531675</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>14.63933163761557</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D78" s="2" t="n">
         <v>45696.90422453704</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>3.618462989115962</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>5.197557064882105</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>9.55274229126614</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>6.860775325644378</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>8.816020053998066</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>16.41351761691052</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="B79" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D79" s="2" t="n">
         <v>45697.90422453704</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>9.252854491945092</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>7.764172790171139</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>24.42753585873504</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>10.2487080830259</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>17.01702728211623</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>34.67624394176095</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D80" s="2" t="n">
         <v>45698.90422453704</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>7.638454414786738</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>7.671540132743029</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>20.16551965503699</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>10.1264329752208</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>15.30999454752977</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>30.29195263025779</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="B81" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D81" s="2" t="n">
         <v>45699.90422453704</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>6.849534043611357</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>5.302936144407123</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>18.08276987513398</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>6.999875710617403</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>12.15247018801848</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>25.08264558575139</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>2</v>
       </c>
-      <c r="B82" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D82" s="2" t="n">
         <v>45700.90422453704</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>1.651168627124719</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>5.756020232638379</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>4.359085175609259</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>7.597946707082661</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>7.407188859763099</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>11.95703188269192</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="B83" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>45701.90422453704</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>9.35108014245513</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>7.214015989978959</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>24.68685157608154</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>9.522501106772227</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>16.56509613243409</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>34.20935268285377</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>2</v>
       </c>
-      <c r="B84" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D84" s="2" t="n">
         <v>45702.90422453704</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>5.303424216181753</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>4.022726034718176</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>14.00103993071983</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>5.309998365827993</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>9.326150250899929</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>19.31103829654782</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D85" s="2" t="n">
         <v>45703.90422453704</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>3.722534652645327</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>7.347633297542718</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>9.827491482983664</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>9.698875952756389</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>11.07016795018805</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>19.52636743574005</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D86" s="2" t="n">
         <v>45704.90422453704</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>7.132302212257001</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>6.77520343029564</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>18.82927784035848</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>8.943268527990245</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>13.90750564255264</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>27.77254636834873</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>2</v>
       </c>
-      <c r="B87" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D87" s="2" t="n">
         <v>45705.90422453704</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>9.89319089067002</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>6.246616094950964</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>26.11802395136885</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>8.245533245335272</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>16.13980698562099</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>34.36355719670413</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>2</v>
       </c>
-      <c r="B88" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D88" s="2" t="n">
         <v>45706.90422453704</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>5.27739341836668</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>2.753419162393854</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>13.93231862448804</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>3.634513294359888</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>8.030812580760534</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>17.56683191884792</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>2</v>
       </c>
-      <c r="B89" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D89" s="2" t="n">
         <v>45707.90422453704</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>8.013290271876254</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>2.118309938062922</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>21.15508631775331</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>2.796169118243058</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>10.13160020993918</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>23.95125543599637</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>2</v>
       </c>
-      <c r="B90" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D90" s="2" t="n">
         <v>45708.90422453704</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>7.495815329306915</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1.385110716835561</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>19.78895246937025</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>1.828346146222941</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>8.880926046142475</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>21.6172986155932</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>2</v>
       </c>
-      <c r="B91" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D91" s="2" t="n">
         <v>45709.90422453704</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>6.31478498158404</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>4.348776404249131</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>16.67103235138187</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>5.740384853608854</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>10.66356138583317</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>22.41141720499072</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>2</v>
       </c>
-      <c r="B92" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D92" s="2" t="n">
         <v>45710.90422453704</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>3.38897820441456</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>5.167567524911625</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>8.946902459654439</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>6.821189132883346</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>8.556545729326185</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>15.76809159253778</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>2</v>
       </c>
-      <c r="B93" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D93" s="2" t="n">
         <v>45711.90422453704</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>8.89534872566102</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>6.5479948897289</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>23.48372063574509</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>8.643353254442149</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>15.44334361538992</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>32.12707389018724</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>2</v>
       </c>
-      <c r="B94" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D94" s="2" t="n">
         <v>45712.90422453704</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>1.928462528162442</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1.977203250641159</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>5.091141074348848</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>2.60990829084633</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>3.905665778803601</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>7.701049365195178</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>2</v>
       </c>
-      <c r="B95" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D95" s="2" t="n">
         <v>45713.90422453704</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>4.53782564709494</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>7.173522124489514</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>11.97985970833064</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>9.46904920432616</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>11.71134777158445</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>21.4489089126568</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
         <v>2</v>
       </c>
-      <c r="B96" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D96" s="2" t="n">
         <v>45714.90422453704</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>4.3786337041841</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1.672729157631679</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>11.55959297904603</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>2.208002488073816</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>6.051362861815779</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>13.76759546711984</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
         <v>2</v>
       </c>
-      <c r="B97" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D97" s="2" t="n">
         <v>45715.90422453704</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>5.299563076023146</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>3.825077680623873</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>13.99084652070111</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>5.049102538423512</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>9.124640756647018</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>19.03994905912462</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>2</v>
       </c>
-      <c r="B98" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D98" s="2" t="n">
         <v>45716.90422453704</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>2.243664799681615</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>7.282378514297564</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>5.923275071159464</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>9.612739638872785</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>9.52604331397918</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>15.53601471003225</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>3</v>
       </c>
-      <c r="B99" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D99" s="2" t="n">
         <v>45717.90422453704</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>6.324675965914548</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>3.20235804220886</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>16.69714455001441</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>4.227112615715695</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>9.527034008123408</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>20.9242571657301</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>3</v>
       </c>
-      <c r="B100" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D100" s="2" t="n">
         <v>45718.90422453704</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>8.76213811761397</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>3.949090226042332</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>23.13204463050088</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>5.212799098375879</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>12.7112283436563</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>28.34484372887676</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>3</v>
       </c>
-      <c r="B101" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D101" s="2" t="n">
         <v>45719.90422453704</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>3.15604087286232</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>4.270875322706486</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>8.331947904356525</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>5.637555425972561</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>7.426916195568806</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>13.96950333032909</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
         <v>3</v>
       </c>
-      <c r="B102" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D102" s="2" t="n">
         <v>45720.90422453704</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>3.09771997874746</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1.44324432013656</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>8.177980743893295</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>1.905082502580259</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>4.54096429888402</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>10.08306324647355</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>3</v>
       </c>
-      <c r="B103" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D103" s="2" t="n">
         <v>45721.90422453704</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>6.000520892862156</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>5.030726314421967</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>15.84137515715609</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>6.640558735036997</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>11.03124720728412</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>22.48193389219309</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>3</v>
       </c>
-      <c r="B104" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D104" s="2" t="n">
         <v>45722.90422453704</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>6.834620482305992</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>4.102668405942477</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>18.04339807328782</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>5.41552229584407</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>10.93728888824847</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>23.45892036913189</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
         <v>3</v>
       </c>
-      <c r="B105" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D105" s="2" t="n">
         <v>45723.90422453704</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>6.97555211832705</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>1.363869766619585</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>18.41545759238341</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>1.800308091937853</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>8.339421884946635</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>20.21576568432127</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
         <v>3</v>
       </c>
-      <c r="B106" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D106" s="2" t="n">
         <v>45724.90422453704</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>1.675446178467347</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>5.07663838620021</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>4.423177911153797</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>6.701162669784277</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>6.752084564667557</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>11.12434058093807</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
         <v>3</v>
       </c>
-      <c r="B107" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D107" s="2" t="n">
         <v>45725.90422453704</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>2.024591577427778</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>4.080572285108004</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>5.344921764409334</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>5.386355416342566</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>6.105163862535782</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>10.7312771807519</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>3</v>
       </c>
-      <c r="B108" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D108" s="2" t="n">
         <v>45726.90422453704</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>4.913584232531412</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>5.370197409606039</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>12.97186237388293</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>7.088660580679972</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>10.28378164213745</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>20.0605229545629</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>3</v>
       </c>
-      <c r="B109" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D109" s="2" t="n">
         <v>45727.90422453704</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>6.592340059255397</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>2.428999778525845</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>17.40377775643425</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>3.206279707654115</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>9.021339837781241</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>20.61005746408836</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
         <v>3</v>
       </c>
-      <c r="B110" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D110" s="2" t="n">
         <v>45728.90422453704</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>8.288639194915904</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>2.73732913098059</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>21.88200747457799</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>3.613274452894379</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>11.02596832589649</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>25.49528192747236</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>3</v>
       </c>
-      <c r="B111" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D111" s="2" t="n">
         <v>45729.90422453704</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>9.938979893078097</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>4.293741009801328</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>26.23890691772618</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>5.667738132937754</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>14.23272090287943</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>31.90664505066393</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>3</v>
       </c>
-      <c r="B112" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D112" s="2" t="n">
         <v>45730.90422453704</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>3.334839877317951</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>3.02162851744922</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>8.80397727611939</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>3.988549643032971</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>6.356468394767171</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>12.79252691915236</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>3</v>
       </c>
-      <c r="B113" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D113" s="2" t="n">
         <v>45731.90422453704</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>8.17919695042524</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>2.109952159815308</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>21.59307994912264</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>2.785136850956206</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>10.28914911024055</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>24.37821680007884</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>3</v>
       </c>
-      <c r="B114" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D114" s="2" t="n">
         <v>45732.90422453704</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>8.352417861740459</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>2.831601810221713</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>22.05038315499482</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>3.737714389492661</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>11.18401967196217</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>25.78809754448748</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>3</v>
       </c>
-      <c r="B115" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D115" s="2" t="n">
         <v>45733.90422453704</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>7.689700340381989</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>7.403477906484001</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>20.30080889860845</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>9.772590836558882</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>15.09317824686599</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>30.07339973516734</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>3</v>
       </c>
-      <c r="B116" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D116" s="2" t="n">
         <v>45734.90422453704</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>2.068666782202643</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>2.557581600676124</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>5.461280305014978</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>3.376007712892484</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>4.626248382878767</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>8.837288017907461</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>3</v>
       </c>
-      <c r="B117" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D117" s="2" t="n">
         <v>45735.90422453704</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>2.585218347485447</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>5.826978332083394</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>6.824976437361581</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>7.691611398350081</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>8.412196679568842</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>14.51658783571166</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>3</v>
       </c>
-      <c r="B118" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D118" s="2" t="n">
         <v>45736.90422453704</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>7.006633138966984</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>3.569979828089922</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>18.49751148687284</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>4.712373373078698</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>10.57661296705691</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>23.20988485995154</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
         <v>3</v>
       </c>
-      <c r="B119" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D119" s="2" t="n">
         <v>45737.90422453704</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>7.653984350274637</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>5.040478540570711</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>20.20651868472504</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>6.653431673553339</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>12.69446289084535</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>26.85995035827838</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>3</v>
       </c>
-      <c r="B120" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D120" s="2" t="n">
         <v>45738.90422453704</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>4.266847621429729</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>2.244758050193666</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>11.26447772057449</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>2.96308062625564</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>6.511605671623395</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>14.22755834683013</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>3</v>
       </c>
-      <c r="B121" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D121" s="2" t="n">
         <v>45739.90422453704</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>4.631841163655288</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>4.90242208354879</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>12.22806067204996</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>6.471197150284403</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>9.534263247204077</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>18.69925782233436</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>3</v>
       </c>
-      <c r="B122" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D122" s="2" t="n">
         <v>45740.90422453704</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>4.350004875446619</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>7.042967764953222</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>11.48401287117908</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>9.296717449738253</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>11.39297264039984</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>20.78073032091733</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-03-24 21:42:05</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>9.822581368732434</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.667481597105995</v>
+      </c>
+      <c r="G123" t="n">
+        <v>25.93161481345363</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6.161075708179914</v>
+      </c>
+      <c r="I123" t="n">
+        <v>14.49006296583843</v>
+      </c>
+      <c r="J123" t="n">
+        <v>32.09269052163354</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-03-25 21:42:05</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>4.660855739921351</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5.909898149203824</v>
+      </c>
+      <c r="G124" t="n">
+        <v>12.30465915339237</v>
+      </c>
+      <c r="H124" t="n">
+        <v>7.801065556949047</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10.57075388912518</v>
+      </c>
+      <c r="J124" t="n">
+        <v>20.10572471034141</v>
       </c>
     </row>
   </sheetData>
